--- a/3.SQL Server Introdução ao SQL com Microsoft SQL Server 2017/4A. PRODUTOS.xlsx
+++ b/3.SQL Server Introdução ao SQL com Microsoft SQL Server 2017/4A. PRODUTOS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Victorino Vila\835-sql-com-sql-server-2017\Vídeo\835-sql-com-sql-server-2017-video3.5-Incluindo dados na tabela\Download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iteris1-my.sharepoint.com/personal/lucas_lourenco_iteris_com_br/Documents/Documentos/Estudos/alura-sql/3.SQL Server Introdução ao SQL com Microsoft SQL Server 2017/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_08BCD87B106D20C81D4B4620F92655EBDAFCF993" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CCD02D3B-F10B-4DAC-9D78-72A6EF16B02C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,9 +33,6 @@
     <t>Sabor da Montanha - 700 ml - Morango</t>
   </si>
   <si>
-    <t>Videira do Campo - 1,5 Litros - Melância</t>
-  </si>
-  <si>
     <t>Linha Refrescante - 700 ml - Morango/Limão</t>
   </si>
   <si>
@@ -65,9 +63,6 @@
     <t>Clean - 2 Litros - Laranja</t>
   </si>
   <si>
-    <t>Light - 1,5 Litros - Melância</t>
-  </si>
-  <si>
     <t>Festival de Sabores - 1,5 Litros - Açai</t>
   </si>
   <si>
@@ -89,9 +84,6 @@
     <t>Linha Refrescante - 700 ml - Manga</t>
   </si>
   <si>
-    <t>Light - 350 ml - Melância</t>
-  </si>
-  <si>
     <t>Frescor do Verão - 470 ml - Manga</t>
   </si>
   <si>
@@ -116,9 +108,6 @@
     <t>Festival de Sabores - 700 ml - Maracujá</t>
   </si>
   <si>
-    <t>Videira do Campo - 350 ml - Melância</t>
-  </si>
-  <si>
     <t>Pedaços de Frutas - 1 Litro - Maça</t>
   </si>
   <si>
@@ -150,6 +139,18 @@
   </si>
   <si>
     <t>Garrafa</t>
+  </si>
+  <si>
+    <t>Light - 350 ml - Melancia</t>
+  </si>
+  <si>
+    <t>Videira do Campo - 1,5 Litros - Melancia</t>
+  </si>
+  <si>
+    <t>Light - 1,5 Litros - Melancia</t>
+  </si>
+  <si>
+    <t>Videira do Campo - 350 ml - Melancia</t>
   </si>
 </sst>
 </file>
@@ -206,7 +207,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -504,7 +505,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -516,16 +519,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -533,10 +536,10 @@
         <v>1040107</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1">
         <v>4.5549999999999997</v>
@@ -549,10 +552,10 @@
         <v>1037797</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1">
         <v>16.007999999999999</v>
@@ -568,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1">
         <v>6.3090000000000002</v>
@@ -581,10 +584,10 @@
         <v>1004327</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1">
         <v>19.510000000000002</v>
@@ -597,10 +600,10 @@
         <v>1088126</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1">
         <v>7.0039999999999996</v>
@@ -613,10 +616,10 @@
         <v>544931</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1">
         <v>2.4594999999999998</v>
@@ -629,10 +632,10 @@
         <v>1078680</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1">
         <v>5.1795000000000009</v>
@@ -645,10 +648,10 @@
         <v>1042712</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1">
         <v>4.903999999999999</v>
@@ -661,10 +664,10 @@
         <v>788975</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1">
         <v>18.010999999999999</v>
@@ -677,10 +680,10 @@
         <v>1002767</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1">
         <v>8.41</v>
@@ -693,10 +696,10 @@
         <v>231776</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1">
         <v>13.312000000000001</v>
@@ -709,10 +712,10 @@
         <v>479745</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1">
         <v>3.7680000000000002</v>
@@ -725,10 +728,10 @@
         <v>1051518</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D14" s="1">
         <v>3.2995000000000001</v>
@@ -741,10 +744,10 @@
         <v>1101035</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D15" s="1">
         <v>9.0105000000000004</v>
@@ -757,10 +760,10 @@
         <v>229900</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D16" s="1">
         <v>4.2110000000000003</v>
@@ -773,10 +776,10 @@
         <v>1086543</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D17" s="1">
         <v>11.0105</v>
@@ -789,10 +792,10 @@
         <v>695594</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D18" s="1">
         <v>28.511999999999997</v>
@@ -805,10 +808,10 @@
         <v>838819</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D19" s="1">
         <v>12.007999999999999</v>
@@ -821,10 +824,10 @@
         <v>326779</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D20" s="1">
         <v>16.5105</v>
@@ -837,10 +840,10 @@
         <v>520380</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D21" s="1">
         <v>12.010999999999999</v>
@@ -853,10 +856,10 @@
         <v>1041119</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D22" s="1">
         <v>4.903999999999999</v>
@@ -869,10 +872,10 @@
         <v>243083</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D23" s="1">
         <v>10.512</v>
@@ -885,10 +888,10 @@
         <v>394479</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D24" s="1">
         <v>8.4089999999999989</v>
@@ -901,10 +904,10 @@
         <v>746596</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D25" s="1">
         <v>19.504999999999999</v>
@@ -917,10 +920,10 @@
         <v>773912</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D26" s="1">
         <v>8.0079999999999991</v>
@@ -933,10 +936,10 @@
         <v>826490</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D27" s="1">
         <v>6.3104999999999993</v>
@@ -949,10 +952,10 @@
         <v>723457</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D28" s="1">
         <v>4.911999999999999</v>
@@ -965,10 +968,10 @@
         <v>812829</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D29" s="1">
         <v>2.8080000000000003</v>
@@ -981,10 +984,10 @@
         <v>290478</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D30" s="1">
         <v>4.5599999999999996</v>
@@ -1000,7 +1003,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D31" s="1">
         <v>7.7090000000000005</v>
@@ -1013,10 +1016,10 @@
         <v>235653</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D32" s="1">
         <v>3.8595000000000006</v>
@@ -1029,10 +1032,10 @@
         <v>1002334</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D33" s="1">
         <v>7.0039999999999996</v>
@@ -1045,10 +1048,10 @@
         <v>1013793</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D34" s="1">
         <v>24.01</v>
@@ -1061,10 +1064,10 @@
         <v>1096818</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D35" s="1">
         <v>7.7105000000000006</v>
@@ -1077,10 +1080,10 @@
         <v>1022450</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D36" s="1">
         <v>38.012</v>
